--- a/biology/Botanique/Stanhopea_annulata/Stanhopea_annulata.xlsx
+++ b/biology/Botanique/Stanhopea_annulata/Stanhopea_annulata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stanhopea en forme d'anneau
 Le Stanhopea en forme d'anneau (Stanhopea annulata) est une espèce de plantes à fleurs de la famille des Orchidaceae (les orchidées) présente du sud de la Colombie à l'Équateur et légèrement en Bolivie.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Epiphyte de petite taille, de croissance chaude à chaude ou terrestre sur des talus escarpés avec des pseudobulbes ovales, rugueux et noirs portant un feuille apicale unique, plissée, largement elliptique, aiguë avec un pétiole distinct qui fleurit à tout moment de l'année sur un pendant, inflorescence à 2 fleurs avec de grandes bractées.
 </t>
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante se trouve dans la forêt de montagne humide et chaude sur les pentes occidentales de la Colombie, du nord-est de l'Équateur et de la Bolivie à des altitudes de 100 à 1000 mètres[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante se trouve dans la forêt de montagne humide et chaude sur les pentes occidentales de la Colombie, du nord-est de l'Équateur et de la Bolivie à des altitudes de 100 à 1000 mètres.
 </t>
         </is>
       </c>
